--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>91.65675166666666</v>
+        <v>0.8272046666666667</v>
       </c>
       <c r="N2">
-        <v>274.970255</v>
+        <v>2.481614</v>
       </c>
       <c r="O2">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021488</v>
       </c>
       <c r="P2">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021487</v>
       </c>
       <c r="Q2">
-        <v>9605.151051214752</v>
+        <v>59.778773268538</v>
       </c>
       <c r="R2">
-        <v>86446.35946093277</v>
+        <v>538.008959416842</v>
       </c>
       <c r="S2">
-        <v>0.3768972484582671</v>
+        <v>0.06546113690231185</v>
       </c>
       <c r="T2">
-        <v>0.3768972484582671</v>
+        <v>0.06546113690231185</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H3">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.913276</v>
       </c>
       <c r="O3">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="P3">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="Q3">
-        <v>66.83379255935867</v>
+        <v>46.08826844309201</v>
       </c>
       <c r="R3">
-        <v>601.5041330342281</v>
+        <v>414.794415987828</v>
       </c>
       <c r="S3">
-        <v>0.002622496240334212</v>
+        <v>0.0504692599928545</v>
       </c>
       <c r="T3">
-        <v>0.002622496240334212</v>
+        <v>0.0504692599928545</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H4">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.877986</v>
+        <v>2.262387333333333</v>
       </c>
       <c r="N4">
-        <v>5.633958</v>
+        <v>6.787162</v>
       </c>
       <c r="O4">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066963</v>
       </c>
       <c r="P4">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066964</v>
       </c>
       <c r="Q4">
-        <v>196.803169150786</v>
+        <v>163.493685293054</v>
       </c>
       <c r="R4">
-        <v>1771.228522357074</v>
+        <v>1471.443167637486</v>
       </c>
       <c r="S4">
-        <v>0.007722374436934794</v>
+        <v>0.1790348300985442</v>
       </c>
       <c r="T4">
-        <v>0.007722374436934793</v>
+        <v>0.1790348300985442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J5">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.65675166666666</v>
+        <v>0.8272046666666667</v>
       </c>
       <c r="N5">
-        <v>274.970255</v>
+        <v>2.481614</v>
       </c>
       <c r="O5">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021488</v>
       </c>
       <c r="P5">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021487</v>
       </c>
       <c r="Q5">
-        <v>12527.13575620125</v>
+        <v>113.0577395452813</v>
       </c>
       <c r="R5">
-        <v>112744.2218058112</v>
+        <v>1017.519655907532</v>
       </c>
       <c r="S5">
-        <v>0.4915532272632305</v>
+        <v>0.1238046176189219</v>
       </c>
       <c r="T5">
-        <v>0.4915532272632304</v>
+        <v>0.1238046176189219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.913276</v>
       </c>
       <c r="O6">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="P6">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="Q6">
-        <v>87.16531244836534</v>
+        <v>87.16531244836533</v>
       </c>
       <c r="R6">
-        <v>784.4878120352882</v>
+        <v>784.4878120352879</v>
       </c>
       <c r="S6">
-        <v>0.003420286286766853</v>
+        <v>0.09545094586807636</v>
       </c>
       <c r="T6">
-        <v>0.003420286286766853</v>
+        <v>0.09545094586807637</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J7">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.877986</v>
+        <v>2.262387333333333</v>
       </c>
       <c r="N7">
-        <v>5.633958</v>
+        <v>6.787162</v>
       </c>
       <c r="O7">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066963</v>
       </c>
       <c r="P7">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066964</v>
       </c>
       <c r="Q7">
-        <v>256.672696145756</v>
+        <v>309.2105354207507</v>
       </c>
       <c r="R7">
-        <v>2310.054265311805</v>
+        <v>2782.894818786756</v>
       </c>
       <c r="S7">
-        <v>0.01007159933413705</v>
+        <v>0.3386030205050734</v>
       </c>
       <c r="T7">
-        <v>0.01007159933413705</v>
+        <v>0.3386030205050735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H8">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.65675166666666</v>
+        <v>0.8272046666666667</v>
       </c>
       <c r="N8">
-        <v>274.970255</v>
+        <v>2.481614</v>
       </c>
       <c r="O8">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021488</v>
       </c>
       <c r="P8">
-        <v>0.9732857812565366</v>
+        <v>0.2219283187021487</v>
       </c>
       <c r="Q8">
-        <v>2671.706809437742</v>
+        <v>29.827285484726</v>
       </c>
       <c r="R8">
-        <v>24045.36128493968</v>
+        <v>268.445569362534</v>
       </c>
       <c r="S8">
-        <v>0.1048353055350391</v>
+        <v>0.03266256418091499</v>
       </c>
       <c r="T8">
-        <v>0.1048353055350391</v>
+        <v>0.03266256418091499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H9">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>1.913276</v>
       </c>
       <c r="O9">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="P9">
-        <v>0.006772239151537979</v>
+        <v>0.1711024058911549</v>
       </c>
       <c r="Q9">
-        <v>18.59005628639289</v>
+        <v>22.996255446284</v>
       </c>
       <c r="R9">
-        <v>167.310506577536</v>
+        <v>206.966299016556</v>
       </c>
       <c r="S9">
-        <v>0.0007294566244369142</v>
+        <v>0.025182200030224</v>
       </c>
       <c r="T9">
-        <v>0.0007294566244369141</v>
+        <v>0.025182200030224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.877986</v>
+        <v>2.262387333333333</v>
       </c>
       <c r="N10">
-        <v>5.633958</v>
+        <v>6.787162</v>
       </c>
       <c r="O10">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066963</v>
       </c>
       <c r="P10">
-        <v>0.01994197959192537</v>
+        <v>0.6069692754066964</v>
       </c>
       <c r="Q10">
-        <v>54.74149904936533</v>
+        <v>81.57699731105799</v>
       </c>
       <c r="R10">
-        <v>492.673491444288</v>
+        <v>734.1929757995219</v>
       </c>
       <c r="S10">
-        <v>0.002148005820853525</v>
+        <v>0.08933142480307869</v>
       </c>
       <c r="T10">
-        <v>0.002148005820853524</v>
+        <v>0.08933142480307871</v>
       </c>
     </row>
   </sheetData>
